--- a/doc/log/log_201608040105_wanghai.xlsx
+++ b/doc/log/log_201608040105_wanghai.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DCB84B4-0437-4D96-AEA7-D2D6C906B9C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{AA963418-11C2-45B0-A02B-4309427AD04C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="2700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +423,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/doc/log/log_201608040105_wanghai.xlsx
+++ b/doc/log/log_201608040105_wanghai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{AA963418-11C2-45B0-A02B-4309427AD04C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B904314-C93F-4430-B305-68372133752E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="2700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,6 @@
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +90,102 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:00</t>
+  </si>
+  <si>
+    <t>修改插数据函数</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>数据格式错误</t>
+  </si>
+  <si>
+    <t>16:00-21:00</t>
+  </si>
+  <si>
+    <t>修改函数为完成，学习@Autowired注解</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>学习jpa中entitymanager</t>
+  </si>
+  <si>
+    <t>19:00-22:30</t>
+  </si>
+  <si>
+    <t>学习一半内容</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>19:00-23:00</t>
+  </si>
+  <si>
+    <t>学习jpa映射关联关系</t>
+  </si>
+  <si>
+    <t>一对多的关联关系理解混乱</t>
+  </si>
+  <si>
+    <t>16：00-19:00</t>
+  </si>
+  <si>
+    <t>通过学习map，实体类转换json</t>
+  </si>
+  <si>
+    <t>学习完成，</t>
+  </si>
+  <si>
+    <t>未实行，学习使用fastjson工具</t>
+  </si>
+  <si>
+    <t>16：:30-20:00</t>
+  </si>
+  <si>
+    <t>大文件拆分</t>
+  </si>
+  <si>
+    <t>解析</t>
+  </si>
+  <si>
+    <t>json文件的解析</t>
+  </si>
+  <si>
+    <t>16:30-21:00</t>
+  </si>
+  <si>
+    <t>json文件的解析，插数据库</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报错Failed to load ApplicationContext </t>
+  </si>
+  <si>
+    <t>13:30-18:30</t>
+  </si>
+  <si>
+    <t>调bug</t>
+  </si>
+  <si>
+    <t>13：00-21:00</t>
+  </si>
+  <si>
+    <t>学习hibernate的几种注解</t>
+  </si>
+  <si>
+    <t>16:00-20-：00</t>
+  </si>
+  <si>
+    <t>修改attributesManager</t>
+  </si>
+  <si>
+    <t>学习springMVC</t>
   </si>
 </sst>
 </file>
@@ -420,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,6 +587,181 @@
       </c>
       <c r="D4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040105_wanghai.xlsx
+++ b/doc/log/log_201608040105_wanghai.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B904314-C93F-4430-B305-68372133752E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7A956DC-92D9-47C9-81A5-B5CFDDC4C080}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="2700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,135 @@
   </si>
   <si>
     <t>学习springMVC</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>解决webdemo出现乱码问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配置 basecontroller和coursecontroller</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>完成，但是@Autowired出现问题</t>
+  </si>
+  <si>
+    <t>解决注入问题</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>解决@Autowired注入失败</t>
+  </si>
+  <si>
+    <t>学习extjs</t>
+  </si>
+  <si>
+    <t>9:00 - 23:00</t>
+  </si>
+  <si>
+    <t>写goods的相关js代码</t>
+  </si>
+  <si>
+    <t>部分功能写完但是服务器的运行有问题</t>
+  </si>
+  <si>
+    <t>跑通服务</t>
+  </si>
+  <si>
+    <t>18:45:-21:40</t>
+  </si>
+  <si>
+    <t>添加goods的madel和store</t>
+  </si>
+  <si>
+    <t>项目发布遇到问题,后面解决了该问题</t>
+  </si>
+  <si>
+    <t>把js视图显示出来</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>修改goods的js</t>
+  </si>
+  <si>
+    <t>视图显示成功,但数据没显示</t>
+  </si>
+  <si>
+    <t>数据显示</t>
+  </si>
+  <si>
+    <t>13:00-14:10</t>
+  </si>
+  <si>
+    <t>修改basecontroller</t>
+  </si>
+  <si>
+    <t>数据显示成功</t>
+  </si>
+  <si>
+    <t>完善goods</t>
+  </si>
+  <si>
+    <t>更新数据</t>
+  </si>
+  <si>
+    <t>用extjs写前端</t>
+  </si>
+  <si>
+    <t>翻页存在问题</t>
+  </si>
+  <si>
+    <t>学习extjs语法</t>
+  </si>
+  <si>
+    <t>待完成</t>
+  </si>
+  <si>
+    <t>尝试用extjs写简单表单</t>
+  </si>
+  <si>
+    <t>开始写文档</t>
+  </si>
+  <si>
+    <t>完成前期工作</t>
+  </si>
+  <si>
+    <t>继续完善</t>
+  </si>
+  <si>
+    <t>配置jira</t>
+  </si>
+  <si>
+    <t>学习未完成</t>
+  </si>
+  <si>
+    <t>翻墙存在问题</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>服务器问题</t>
+  </si>
+  <si>
+    <t>为各小组建管理员</t>
+  </si>
+  <si>
+    <t>学习bootstrap框架</t>
+  </si>
+  <si>
+    <t>学习bootstrap</t>
+  </si>
+  <si>
+    <t>学习jQuery</t>
   </si>
 </sst>
 </file>
@@ -515,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -762,6 +891,442 @@
       </c>
       <c r="E15" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
